--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_Lineal_Estacionario_ARMA.xlsx
@@ -522,49 +522,49 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.1230386655373653</v>
+        <v>0.05236150508051951</v>
       </c>
       <c r="C2">
-        <v>12.9524955605424</v>
+        <v>5.771705807815583</v>
       </c>
       <c r="D2">
-        <v>0.03948688486571845</v>
+        <v>0.01917729166065065</v>
       </c>
       <c r="E2">
-        <v>0.04131407102139147</v>
+        <v>0.02158434959155032</v>
       </c>
       <c r="F2">
-        <v>0.06873461221174237</v>
+        <v>0.05236150508051951</v>
       </c>
       <c r="G2">
-        <v>7.235812869392896</v>
+        <v>5.771705807815583</v>
       </c>
       <c r="H2">
-        <v>0.5688478440133351</v>
+        <v>-0.09339174897730124</v>
       </c>
       <c r="I2">
-        <v>0.3169393983784689</v>
+        <v>0.8812630148797732</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="K2">
-        <v>0.2847569798652937</v>
+        <v>0.5046315754686911</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>0.901649210121425</v>
+        <v>0.8548487170623995</v>
       </c>
       <c r="O2">
-        <v>1.02468787565879</v>
+        <v>0.907210222142919</v>
       </c>
       <c r="P2">
-        <v>0.9557732726284236</v>
+        <v>0.8884813313141497</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -575,49 +575,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.003885193758369043</v>
+        <v>0.003874098966882178</v>
       </c>
       <c r="C3">
-        <v>0.7100225227204399</v>
+        <v>0.7063992151206333</v>
       </c>
       <c r="D3">
-        <v>0.001287083693042158</v>
+        <v>0.001645490988368546</v>
       </c>
       <c r="E3">
-        <v>0.002355325376641413</v>
+        <v>0.003009426268669916</v>
       </c>
       <c r="F3">
-        <v>0.003885193758369043</v>
+        <v>0.003874098966882178</v>
       </c>
       <c r="G3">
-        <v>0.7100225227204399</v>
+        <v>0.7063992151206333</v>
       </c>
       <c r="H3">
-        <v>-0.4452826407815878</v>
+        <v>-0.3077199910781958</v>
       </c>
       <c r="I3">
-        <v>0.4523850504509564</v>
+        <v>0.6144730614908245</v>
       </c>
       <c r="J3">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="K3">
-        <v>0.2847569798652937</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N3">
-        <v>0.5443559566891729</v>
+        <v>0.5447937599161985</v>
       </c>
       <c r="O3">
-        <v>0.548241150447542</v>
+        <v>0.5486678588830807</v>
       </c>
       <c r="P3">
-        <v>0.5464568529709812</v>
+        <v>0.546778967638841</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -628,49 +628,49 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.02617477959328152</v>
+        <v>0.01320248273002456</v>
       </c>
       <c r="C4">
-        <v>3.543345815615548</v>
+        <v>1.730981450536641</v>
       </c>
       <c r="D4">
-        <v>0.01136475017661546</v>
+        <v>0.004807825431072263</v>
       </c>
       <c r="E4">
-        <v>0.01565314004706549</v>
+        <v>0.006300856888045928</v>
       </c>
       <c r="F4">
-        <v>0.02399952552008933</v>
+        <v>0.009530501487472698</v>
       </c>
       <c r="G4">
-        <v>3.248876194938223</v>
+        <v>1.249546894055769</v>
       </c>
       <c r="H4">
-        <v>0.1158405535537109</v>
+        <v>0.6544003365618811</v>
       </c>
       <c r="I4">
-        <v>0.8528377619321238</v>
+        <v>0.2308277293212552</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.5046315754686911</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M4">
         <v>50</v>
       </c>
       <c r="N4">
-        <v>0.7147028466257251</v>
+        <v>0.7588713370947083</v>
       </c>
       <c r="O4">
-        <v>0.7408776262190067</v>
+        <v>0.7720738198247329</v>
       </c>
       <c r="P4">
-        <v>0.726036446517708</v>
+        <v>0.7630431092941874</v>
       </c>
       <c r="Q4" t="s">
         <v>27</v>
@@ -681,28 +681,28 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.2727713835244894</v>
+        <v>0.01667602655725275</v>
       </c>
       <c r="C5">
-        <v>26.29760138606969</v>
+        <v>2.169425187091393</v>
       </c>
       <c r="D5">
-        <v>0.08718818188932315</v>
+        <v>0.006068461559556851</v>
       </c>
       <c r="E5">
-        <v>0.08264594513226707</v>
+        <v>0.007848736277060673</v>
       </c>
       <c r="F5">
-        <v>0.160326412505742</v>
+        <v>0.009025150605285859</v>
       </c>
       <c r="G5">
-        <v>15.45690032897476</v>
+        <v>1.174103973340387</v>
       </c>
       <c r="H5">
-        <v>0.5302889816684982</v>
+        <v>0.828803311880864</v>
       </c>
       <c r="I5">
-        <v>0.3579502590649637</v>
+        <v>0.08281283278068666</v>
       </c>
       <c r="J5">
         <v>0.7</v>
@@ -717,16 +717,16 @@
         <v>50</v>
       </c>
       <c r="N5">
-        <v>0.9166687430696712</v>
+        <v>0.767009095795083</v>
       </c>
       <c r="O5">
-        <v>1.189440126594161</v>
+        <v>0.7836851223523358</v>
       </c>
       <c r="P5">
-        <v>1.054960188909288</v>
+        <v>0.7731768969347345</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,49 +734,49 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.105061757728386</v>
+        <v>0.06155493826939207</v>
       </c>
       <c r="C6">
-        <v>10.69564849505509</v>
+        <v>6.660034802158794</v>
       </c>
       <c r="D6">
-        <v>0.03453278554206296</v>
+        <v>0.02195759966898134</v>
       </c>
       <c r="E6">
-        <v>0.03537556879101514</v>
+        <v>0.02379973939342483</v>
       </c>
       <c r="F6">
-        <v>0.07610622823203583</v>
+        <v>0.05747098806382123</v>
       </c>
       <c r="G6">
-        <v>7.747875945105785</v>
+        <v>6.218165290725784</v>
       </c>
       <c r="H6">
-        <v>0.4041579087486988</v>
+        <v>0.5337343913205403</v>
       </c>
       <c r="I6">
-        <v>0.4997843548974292</v>
+        <v>0.3542357697797782</v>
       </c>
       <c r="J6">
-        <v>0.09999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K6">
-        <v>0.8728885715695383</v>
+        <v>0.1040880386618279</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>50</v>
       </c>
       <c r="N6">
-        <v>0.9314596835305174</v>
+        <v>0.8807377634720996</v>
       </c>
       <c r="O6">
-        <v>1.036521441258903</v>
+        <v>0.9422927017414917</v>
       </c>
       <c r="P6">
-        <v>0.976176121607231</v>
+        <v>0.9225983237046528</v>
       </c>
       <c r="Q6" t="s">
         <v>26</v>
@@ -787,52 +787,52 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.06027456662736597</v>
+        <v>0.02462700919825589</v>
       </c>
       <c r="C7">
-        <v>8.558572148934026</v>
+        <v>3.383983165963021</v>
       </c>
       <c r="D7">
-        <v>0.01999591781152275</v>
+        <v>0.008156730638442317</v>
       </c>
       <c r="E7">
-        <v>0.02807350742094331</v>
+        <v>0.01118598215020193</v>
       </c>
       <c r="F7">
-        <v>0.0398903990450411</v>
+        <v>0.01858529980113333</v>
       </c>
       <c r="G7">
-        <v>5.664161144242024</v>
+        <v>2.55379535351232</v>
       </c>
       <c r="H7">
-        <v>0.4913790219765448</v>
+        <v>0.4661276555573504</v>
       </c>
       <c r="I7">
-        <v>0.4005353160725529</v>
+        <v>0.4287610401749792</v>
       </c>
       <c r="J7">
-        <v>0.4999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="K7">
-        <v>0.3910022189557705</v>
+        <v>0.2847569798652937</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>0.6855824995996065</v>
+        <v>0.7195530138050085</v>
       </c>
       <c r="O7">
-        <v>0.7458570662269725</v>
+        <v>0.7441800230032644</v>
       </c>
       <c r="P7">
-        <v>0.7122700242508874</v>
+        <v>0.7291921736434269</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,49 +840,49 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.05313659227902223</v>
+        <v>0.01996722343366619</v>
       </c>
       <c r="C8">
-        <v>7.624789752503826</v>
+        <v>2.812741372053289</v>
       </c>
       <c r="D8">
-        <v>0.01961656519566456</v>
+        <v>0.00789627777695724</v>
       </c>
       <c r="E8">
-        <v>0.02756160487555018</v>
+        <v>0.01099040296150916</v>
       </c>
       <c r="F8">
-        <v>0.05150663070543426</v>
+        <v>0.01996722343366619</v>
       </c>
       <c r="G8">
-        <v>7.390899813946832</v>
+        <v>2.812741372053289</v>
       </c>
       <c r="H8">
-        <v>0.724189280921951</v>
+        <v>0.1924787291701262</v>
       </c>
       <c r="I8">
-        <v>0.1664992815569044</v>
+        <v>0.7564502306964381</v>
       </c>
       <c r="J8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K8">
-        <v>0.1881204043741873</v>
+        <v>0.6238376647810728</v>
       </c>
       <c r="L8">
         <v>10</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N8">
-        <v>0.6968925570908137</v>
+        <v>0.7098847989387026</v>
       </c>
       <c r="O8">
-        <v>0.7500291493698359</v>
+        <v>0.7298520223723688</v>
       </c>
       <c r="P8">
-        <v>0.7117352303771817</v>
+        <v>0.7184702694352303</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -893,49 +893,49 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.01230789807548138</v>
+        <v>0.01081361072546649</v>
       </c>
       <c r="C9">
-        <v>2.127984099525859</v>
+        <v>1.885839683713151</v>
       </c>
       <c r="D9">
-        <v>0.003989791451474484</v>
+        <v>0.003615686498253165</v>
       </c>
       <c r="E9">
-        <v>0.006887832216149907</v>
+        <v>0.006288593594734938</v>
       </c>
       <c r="F9">
-        <v>0.01230789807548138</v>
+        <v>0.007548247167782574</v>
       </c>
       <c r="G9">
-        <v>2.127984099525859</v>
+        <v>1.31637659361607</v>
       </c>
       <c r="H9">
-        <v>-0.06574463852020629</v>
+        <v>0.6366217889874055</v>
       </c>
       <c r="I9">
-        <v>0.9163516686754501</v>
+        <v>0.2481155930960379</v>
       </c>
       <c r="J9">
-        <v>0.09999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="K9">
-        <v>0.8728885715695383</v>
+        <v>0.2847569798652937</v>
       </c>
       <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
       <c r="N9">
-        <v>0.574004851152303</v>
+        <v>0.5689607730355942</v>
       </c>
       <c r="O9">
-        <v>0.5863127492277844</v>
+        <v>0.5797743837610607</v>
       </c>
       <c r="P9">
-        <v>0.5792521255264633</v>
+        <v>0.5749594792197038</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
@@ -946,49 +946,49 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.07458769183146208</v>
+        <v>0.0175565238504426</v>
       </c>
       <c r="C10">
-        <v>6.768774153498687</v>
+        <v>2.043186892872964</v>
       </c>
       <c r="D10">
-        <v>0.02425273430224374</v>
+        <v>0.00636437420557499</v>
       </c>
       <c r="E10">
-        <v>0.02186696836997412</v>
+        <v>0.007486860697099478</v>
       </c>
       <c r="F10">
-        <v>0.07458769183146208</v>
+        <v>0.01385759851795143</v>
       </c>
       <c r="G10">
-        <v>6.768774153498687</v>
+        <v>1.612714675169618</v>
       </c>
       <c r="H10">
-        <v>0.005259539493715881</v>
+        <v>-0.2467005168253383</v>
       </c>
       <c r="I10">
-        <v>0.9933033772042823</v>
+        <v>0.6891070557443094</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.747060078104662</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>1.078429708425278</v>
+        <v>0.8417150343062385</v>
       </c>
       <c r="O10">
-        <v>1.15301740025674</v>
+        <v>0.8592715581566811</v>
       </c>
       <c r="P10">
-        <v>1.109103643994179</v>
+        <v>0.8500724753755128</v>
       </c>
       <c r="Q10" t="s">
         <v>28</v>
